--- a/student_database.xlsx
+++ b/student_database.xlsx
@@ -16,7 +16,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +486,11 @@
           <t>status</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>gender</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -522,6 +534,103 @@
       <c r="I2" t="inlineStr">
         <is>
           <t>Active</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>dd</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>asda</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>36526</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>sdsdg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1213</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>sasd</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2024-11-08</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ddda</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ddads</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>39814</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>dmsdf@gmail.com</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>010-6444-22323</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>대구 동구</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2024-11-08</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Male</t>
         </is>
       </c>
     </row>

--- a/student_database.xlsx
+++ b/student_database.xlsx
@@ -16,12 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -60,13 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -540,34 +533,36 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>234234234</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dd</t>
+          <t>121</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>asda</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>36526</v>
+          <t>234234</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2000-01-01</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>sdsdg</t>
+          <t>2332</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1213</t>
+          <t>2323</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>sasd</t>
+          <t>234234</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -588,34 +583,36 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>1241</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ddda</t>
+          <t>241214</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ddads</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="n">
-        <v>39814</v>
+          <t>41224</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2000-01-01</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>dmsdf@gmail.com</t>
+          <t>2334232</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>010-6444-22323</t>
+          <t>234234</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>대구 동구</t>
+          <t>234234</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">

--- a/student_database.xlsx
+++ b/student_database.xlsx
@@ -537,7 +537,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>243243234</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -582,17 +582,19 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>1241</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>112213</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>241214</t>
+          <t>2332r</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>41224</t>
+          <t>2r323r</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -602,17 +604,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2334232</t>
+          <t>2332r</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>234234</t>
+          <t>32r32r</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>234234</t>
+          <t>dsdfsdf</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">

--- a/student_database.xlsx
+++ b/student_database.xlsx
@@ -584,17 +584,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>112213</t>
+          <t>241124</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2332r</t>
+          <t>241</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2r323r</t>
+          <t>2112</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -604,17 +604,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2332r</t>
+          <t>12421</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>32r32r</t>
+          <t>241</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>dsdfsdf</t>
+          <t>124214</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">

--- a/student_database.xlsx
+++ b/student_database.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -582,52 +582,102 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>241124</t>
-        </is>
+      <c r="A4" t="n">
+        <v>241124</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>24123233</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2112</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2000-01-01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>12421</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>241</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2112</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>124214</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2024-11-08</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2323</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1112</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>2000-01-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>12421</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>241</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>124214</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>dfdsf</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>sdfsdf</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>sdfsdf</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2024-11-08</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>Male</t>
         </is>

--- a/student_database.xlsx
+++ b/student_database.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,7 +516,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>123 Main St</t>
+          <t>123 Main Stdfsssdffd</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -529,7 +529,11 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -592,7 +596,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2112</t>
+          <t>2112adfssdfsdfsa</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -632,52 +636,150 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>2323</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1112243324</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2000-01-01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>dfdsf232323</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>sdfsdf23322323</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>sdfsdf2323234</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2024-11-08</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1241412</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>sdfasd</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>sfadf</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2001-05-31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>sfdafsd</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>sdfsdfa</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>sdfafasd</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2024-11-08</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1212</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>23232323</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>322323</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2000-01-12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3223@naver.com</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>2323</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1112</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2000-01-01</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>dfdsf</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>sdfsdf</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>sdfsdf</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>asds</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>2024-11-08</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
